--- a/testfolder/2058-001-368 JRG Baseline.stats.xlsx
+++ b/testfolder/2058-001-368 JRG Baseline.stats.xlsx
@@ -1830,7 +1830,7 @@
         <v>193</v>
       </c>
       <c r="E29" t="n">
-        <v>87.1</v>
+        <v>88.4</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
